--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\OneDrive - Riess\Code repositories\nlp_lydmaskinen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424AE39-D7F6-4CD6-AC38-8E65E8059333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F67551-243D-469E-B9F3-868970B3909A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{73E40B2E-76E1-4C22-8303-381006889A30}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
